--- a/back/lib/excel/template.xlsx
+++ b/back/lib/excel/template.xlsx
@@ -1,64 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr date1904="1" filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <workbookPr date1904="1" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10005" windowHeight="19995"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10005" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="My Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Тестовые данные</t>
+    <t>Заголовок</t>
   </si>
   <si>
-    <t>list</t>
+    <t>Данные</t>
   </si>
   <si>
-    <t>sum</t>
+    <t>Всего</t>
   </si>
   <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>@</t>
+    <t>Footer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -70,7 +49,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -93,66 +72,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -215,7 +142,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -250,7 +177,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -427,61 +354,74 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B2:D2"/>
+  <mergeCells count="4">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/back/lib/excel/template.xlsx
+++ b/back/lib/excel/template.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
-  <workbookPr date1904="1" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr date1904="1" filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10005" windowHeight="16440"/>
   </bookViews>
@@ -19,20 +19,20 @@
     <t>Заголовок</t>
   </si>
   <si>
-    <t>Данные</t>
+    <t>Footer</t>
   </si>
   <si>
-    <t>Всего</t>
+    <t>##list</t>
   </si>
   <si>
-    <t>Footer</t>
+    <t>##sum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,12 +76,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -142,7 +143,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -177,7 +178,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -354,74 +355,77 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="1">
-        <v>5</v>
-      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
+      <c r="E4" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D2:E2"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/back/lib/excel/template.xlsx
+++ b/back/lib/excel/template.xlsx
@@ -49,7 +49,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -72,17 +72,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -369,63 +402,64 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="2"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="3"/>
       <c r="E3" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
